--- a/Group1/test/Transaction.xlsx
+++ b/Group1/test/Transaction.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B536319A-F2B4-4389-B3A3-C4B93C9B876E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3EC9FB-0968-43FA-9BEE-EE66C50C94D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SingleAccount" sheetId="1" r:id="rId1"/>
     <sheet name="MultipleAccount" sheetId="2" r:id="rId2"/>
-    <sheet name="TransactionVoucher" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BF88F775-9F45-4ED0-A67B-0EFB4EC5FEDE}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{BF88F775-9F45-4ED0-A67B-0EFB4EC5FEDE}">
       <text>
         <r>
           <rPr>
@@ -105,57 +104,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E00D9CC0-1E86-4098-BF86-2D237767A21D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Unique Test Case Id
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>E.g. TC_Login
-Consider the naming convention before writing</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BA393081-7237-43DF-9FE4-FA1C2A656F99}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select appropriate value to distinguish between Manual, Automation, Performance</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Member ID</t>
   </si>
@@ -190,12 +140,6 @@
     <t>Second Amount</t>
   </si>
   <si>
-    <t>SB 422-Linson Miranda</t>
-  </si>
-  <si>
-    <t>111852-Linson Miranda</t>
-  </si>
-  <si>
     <t>Credit</t>
   </si>
   <si>
@@ -227,6 +171,21 @@
   </si>
   <si>
     <t>111974-Pranav Parab</t>
+  </si>
+  <si>
+    <t>SB 116-Pranav Parab</t>
+  </si>
+  <si>
+    <t>111851-abcd ijkl</t>
+  </si>
+  <si>
+    <t>SB 101-abcd ijkl</t>
+  </si>
+  <si>
+    <t>Cheque no</t>
+  </si>
+  <si>
+    <t>Reciept</t>
   </si>
 </sst>
 </file>
@@ -673,22 +632,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="3" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -702,50 +661,78 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>605488</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6000</v>
+      <c r="G3" s="1">
+        <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6000</v>
+      <c r="G4" s="1">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +746,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,34 +797,34 @@
     </row>
     <row r="2" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1">
         <v>300</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -845,67 +832,4 @@
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA6D58A-DB92-40EB-9F79-E87E015DAD3B}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Group1/test/Transaction.xlsx
+++ b/Group1/test/Transaction.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3EC9FB-0968-43FA-9BEE-EE66C50C94D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02031402-553E-43CF-9FE5-2844C37A7DEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SingleAccount" sheetId="1" r:id="rId1"/>
-    <sheet name="MultipleAccount" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +25,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AA145241-A905-4D59-ADF8-5C36B2CC77F0}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{AA145241-A905-4D59-ADF8-5C36B2CC77F0}">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{BF88F775-9F45-4ED0-A67B-0EFB4EC5FEDE}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{BF88F775-9F45-4ED0-A67B-0EFB4EC5FEDE}">
       <text>
         <r>
           <rPr>
@@ -69,43 +68,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{9EE52A79-F889-430C-B025-A268DA66D784}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Unique Test Case Id
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>E.g. TC_Login
-Consider the naming convention before writing</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>Member ID</t>
   </si>
@@ -125,21 +89,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>No of accounts</t>
-  </si>
-  <si>
-    <t>First Account number</t>
-  </si>
-  <si>
-    <t>Second Account number</t>
-  </si>
-  <si>
-    <t>First Amount</t>
-  </si>
-  <si>
-    <t>Second Amount</t>
-  </si>
-  <si>
     <t>Credit</t>
   </si>
   <si>
@@ -155,12 +104,6 @@
     <t>SB</t>
   </si>
   <si>
-    <t>111852-linson miranda</t>
-  </si>
-  <si>
-    <t>SB 422-linson miranda</t>
-  </si>
-  <si>
     <t>111423-Trial Entry</t>
   </si>
   <si>
@@ -186,6 +129,48 @@
   </si>
   <si>
     <t>Reciept</t>
+  </si>
+  <si>
+    <t>Charges</t>
+  </si>
+  <si>
+    <t>TAX-TAX</t>
+  </si>
+  <si>
+    <t>NoofAccounts</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>SB 101-abcd#SB 422-linson#SB 116-Pranav#SB 212-Deepa#SB 3314-Vishal</t>
+  </si>
+  <si>
+    <t>100#100#150#100#100</t>
+  </si>
+  <si>
+    <t>200#300</t>
+  </si>
+  <si>
+    <t>500#300#400</t>
+  </si>
+  <si>
+    <t>900#400#600#100</t>
+  </si>
+  <si>
+    <t>SB 101-abcd#SB 422-linson</t>
+  </si>
+  <si>
+    <t>SB 116-Pranav#SB 212-Deepa#SB 3314-Vishal</t>
+  </si>
+  <si>
+    <t>SB 101-abcd#SB 422-linson#SB 212-Deepa#SB 3314-Vishal</t>
+  </si>
+  <si>
+    <t>SB 101-abcd#SB 422-linson#SB 116-Pranav</t>
+  </si>
+  <si>
+    <t>100#100#150</t>
   </si>
 </sst>
 </file>
@@ -326,20 +311,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,6 +324,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,204 +611,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="1" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>605488</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>605488</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="7" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
         <v>605488</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10000</v>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D9D45A-D7D1-42F1-8FD8-199505E6F616}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1">
-        <v>200</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1">
-        <v>300</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>